--- a/uploads/default/project.xlsx
+++ b/uploads/default/project.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichang/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/sites/bo/uploads/default/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="6420" yWindow="3380" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -29,24 +29,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>序号</t>
-  </si>
-  <si>
     <t>编号</t>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>82017Q213</t>
-  </si>
-  <si>
-    <t>会议系统优化一期项目合同</t>
-  </si>
-  <si>
-    <t>合同编号</t>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -57,7 +42,55 @@
     <t>新智云商机管理系统项目</t>
   </si>
   <si>
-    <t>项目编号</t>
+    <t>责任人</t>
+    <rPh sb="0" eb="1">
+      <t>ze'ren'ren</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项部门</t>
+    <rPh sb="0" eb="1">
+      <t>li'xiang'bu'men</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计总收入</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'shou'ru</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计总支出</t>
+    <rPh sb="0" eb="1">
+      <t>yu'ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zong'zhi'chu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立项日期</t>
+    <rPh sb="0" eb="1">
+      <t>li'xiang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ri'qi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <rPh sb="0" eb="1">
+      <t>shuo'm</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -77,6 +110,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -86,7 +120,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -109,16 +149,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -128,18 +168,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -417,55 +455,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
